--- a/prime迷宫算法.xlsx
+++ b/prime迷宫算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25440" windowHeight="13020"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -14,177 +14,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>起点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>列表1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>列表2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>列表3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>列表4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1c 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3a 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3b 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +161,13 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,15 +175,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -228,12 +183,133 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,26 +324,329 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -286,48 +665,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,26 +696,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -369,76 +704,6 @@
     <border>
       <left style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -450,116 +715,429 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="25" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差" xfId="3" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="计算" xfId="4" builtinId="22"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -850,254 +1428,341 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="13" width="9.5" customWidth="1"/>
+    <col min="20" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2">
+    <row r="1" s="1" customFormat="1" ht="51.75" customHeight="1" spans="1:20">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <v>3</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="6">
         <v>4</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="6">
         <v>5</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>6</v>
       </c>
       <c r="G1"/>
-      <c r="H1" s="6">
+      <c r="H1" s="7">
         <v>1</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="7">
         <v>2</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="15">
         <v>3</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="27">
         <v>4</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="28">
         <v>5</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="29">
         <v>6</v>
       </c>
       <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+      <c r="O1" s="30">
+        <v>1</v>
+      </c>
+      <c r="P1" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="30">
+        <v>3</v>
+      </c>
+      <c r="R1" s="30">
+        <v>4</v>
+      </c>
+      <c r="S1" s="30">
+        <v>5</v>
+      </c>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" ht="51.75" customHeight="1" spans="1:20">
+      <c r="A2" s="8">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>11</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>12</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="32">
         <v>9</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="12">
         <v>10</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="29">
         <v>11</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="33">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="O2" s="30">
+        <v>6</v>
+      </c>
+      <c r="P2" s="34">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>8</v>
+      </c>
+      <c r="R2" s="30">
+        <v>9</v>
+      </c>
+      <c r="S2" s="30">
+        <v>10</v>
+      </c>
+      <c r="T2" s="45"/>
+    </row>
+    <row r="3" ht="51.75" customHeight="1" spans="1:20">
+      <c r="A3" s="8">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>14</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>15</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <v>16</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>17</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>18</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="15">
         <v>13</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="35">
         <v>14</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="29">
         <v>15</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>16</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="15">
         <v>17</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="29">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="O3" s="34">
+        <v>11</v>
+      </c>
+      <c r="P3" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="48">
+        <v>13</v>
+      </c>
+      <c r="R3" s="30">
+        <v>14</v>
+      </c>
+      <c r="S3" s="30">
+        <v>15</v>
+      </c>
+      <c r="T3" s="45"/>
+    </row>
+    <row r="4" ht="51.75" customHeight="1" spans="1:20">
+      <c r="A4" s="8">
         <v>19</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>20</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="16">
         <v>21</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="17">
         <v>22</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="18">
         <v>23</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="19">
         <v>24</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>19</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="37">
         <v>20</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="28">
         <v>21</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="35">
         <v>22</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="38">
         <v>23</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="29">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="O4" s="39">
+        <v>16</v>
+      </c>
+      <c r="P4" s="40">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>18</v>
+      </c>
+      <c r="R4" s="39">
+        <v>19</v>
+      </c>
+      <c r="S4" s="30">
+        <v>20</v>
+      </c>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" ht="51.75" customHeight="1" spans="1:20">
+      <c r="A5" s="13">
         <v>25</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>26</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="16">
         <v>27</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="21">
         <v>28</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="19">
         <v>29</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="16">
         <v>30</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>25</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="41">
         <v>26</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>27</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>28</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="15">
         <v>29</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="42">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="O5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="44">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>23</v>
+      </c>
+      <c r="R5" s="48">
+        <v>24</v>
+      </c>
+      <c r="S5" s="30">
+        <v>25</v>
+      </c>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" ht="51.75" customHeight="1" spans="1:20">
+      <c r="A6" s="10">
         <v>31</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="22">
         <v>32</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="21">
         <v>33</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="18">
         <v>34</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="22">
         <v>35</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>36</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>31</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="28">
         <v>32</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="32">
         <v>33</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <v>34</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="32">
         <v>35</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="41">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1113,18 +1778,22 @@
       <c r="H7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="50"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
@@ -1133,8 +1802,12 @@
       <c r="H8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="T8" s="50"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1147,120 +1820,142 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="T9" s="50"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="O11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+      <c r="O12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
+      <c r="O15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>